--- a/practice/test/projectA/data/test_user_data.xlsx
+++ b/practice/test/projectA/data/test_user_data.xlsx
@@ -84,10 +84,10 @@
     </r>
   </si>
   <si>
-    <t>{"name": "张四三", "password": "123456"}</t>
-  </si>
-  <si>
-    <t>{"code":"100001","data":{"name":"张四三","password":"e10adc3949ba59abbe56e057f20f883e"},"msg":"失败，用户已存在"}</t>
+    <t>{"name": "张三三", "password": "123456"}</t>
+  </si>
+  <si>
+    <t>{"code":"100001","data":{"name":"张三三","password":"e10adc3949ba59abbe56e057f20f883e"},"msg":"失败，用户已存在"}</t>
   </si>
   <si>
     <t>test_user_reg_exist</t>
